--- a/Pruebas.xlsx
+++ b/Pruebas.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jjaavviieerroperro\Desktop\Bootcamp DS\RepositoriosGitHub\Proyectos\Proyecto_sqlite\SQLite\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AD7CFC-15D5-4682-9D18-2735C5572688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,211 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
+  <si>
+    <t>javier</t>
+  </si>
+  <si>
+    <t>rodriguez</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>promocion</t>
+  </si>
+  <si>
+    <t>ds</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>alum_id</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>apellido</t>
+  </si>
+  <si>
+    <t>correo</t>
+  </si>
+  <si>
+    <t>bot_id</t>
+  </si>
+  <si>
+    <t>prom_id</t>
+  </si>
+  <si>
+    <t>mes</t>
+  </si>
+  <si>
+    <t>fecha</t>
+  </si>
+  <si>
+    <t>Paula</t>
+  </si>
+  <si>
+    <t>Gonzale</t>
+  </si>
+  <si>
+    <t>hotmal</t>
+  </si>
+  <si>
+    <t>Modalidad</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>alunmno</t>
+  </si>
+  <si>
+    <t>Andres</t>
+  </si>
+  <si>
+    <t>ramirez</t>
+  </si>
+  <si>
+    <t>ciudad</t>
+  </si>
+  <si>
+    <t>alber</t>
+  </si>
+  <si>
+    <t>fstack</t>
+  </si>
+  <si>
+    <t>marzo</t>
+  </si>
+  <si>
+    <t>abril</t>
+  </si>
+  <si>
+    <t>junio</t>
+  </si>
+  <si>
+    <t>sevilla</t>
+  </si>
+  <si>
+    <t>bilbo</t>
+  </si>
+  <si>
+    <t>cadiz</t>
+  </si>
+  <si>
+    <t>berta</t>
+  </si>
+  <si>
+    <t>ruiz</t>
+  </si>
+  <si>
+    <t>hotmail</t>
+  </si>
+  <si>
+    <t>presencial</t>
+  </si>
+  <si>
+    <t>campus</t>
+  </si>
+  <si>
+    <t>campus_id</t>
+  </si>
+  <si>
+    <t>claustro</t>
+  </si>
+  <si>
+    <t>calificacion</t>
+  </si>
+  <si>
+    <t>calificacion_id</t>
+  </si>
+  <si>
+    <t>nota</t>
+  </si>
+  <si>
+    <t>apto</t>
+  </si>
+  <si>
+    <t>no apto</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Rol</t>
+  </si>
+  <si>
+    <t>Prom_id</t>
+  </si>
+  <si>
+    <t>Campus_id</t>
+  </si>
+  <si>
+    <t>Modalidad_id</t>
+  </si>
+  <si>
+    <t>Mondalidad_id</t>
+  </si>
+  <si>
+    <t>Julian</t>
+  </si>
+  <si>
+    <t>Perico</t>
+  </si>
+  <si>
+    <t>Luisa</t>
+  </si>
+  <si>
+    <t>Andrea</t>
+  </si>
+  <si>
+    <t>Ta</t>
+  </si>
+  <si>
+    <t>Ld</t>
+  </si>
+  <si>
+    <t>Vertical_id</t>
+  </si>
+  <si>
+    <t>vertical</t>
+  </si>
+  <si>
+    <t>vertical_id</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>p5</t>
+  </si>
+  <si>
+    <t>datascience</t>
+  </si>
+  <si>
+    <t>ciber</t>
+  </si>
+  <si>
+    <t>marketin</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,15 +238,51 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -45,12 +290,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +651,862 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="5"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="2">
+        <v>2</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="2">
+        <v>10</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="2">
+        <v>11</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="2">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="2">
+        <v>13</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>3</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2</v>
+      </c>
+      <c r="K17" s="2">
+        <v>2</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2</v>
+      </c>
+      <c r="K18" s="2">
+        <v>3</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="2">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>4</v>
+      </c>
+      <c r="H19" s="2">
+        <v>4</v>
+      </c>
+      <c r="I19" s="2">
+        <v>2</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
+        <v>2</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="2">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="2">
+        <v>3</v>
+      </c>
+      <c r="H20" s="2">
+        <v>2</v>
+      </c>
+      <c r="I20" s="2">
+        <v>3</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2">
+        <v>4</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="2">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="2">
+        <v>2</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="2">
+        <v>3</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+      <c r="D26" s="2">
+        <v>4</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="2">
+        <v>4</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="2">
+        <v>5</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L30" s="2"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+    </row>
+    <row r="33" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="37" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="13"/>
+    </row>
+    <row r="38" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="3"/>
+    </row>
+    <row r="39" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Pruebas.xlsx
+++ b/Pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jjaavviieerroperro\Desktop\Bootcamp DS\RepositoriosGitHub\Proyectos\Proyecto_sqlite\SQLite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AD7CFC-15D5-4682-9D18-2735C5572688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C291D554-B836-457F-8C2B-8C6E6E6CA94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
   <si>
     <t>javier</t>
   </si>
@@ -144,9 +144,6 @@
     <t>calificacion</t>
   </si>
   <si>
-    <t>calificacion_id</t>
-  </si>
-  <si>
     <t>nota</t>
   </si>
   <si>
@@ -201,21 +198,6 @@
     <t>vertical_id</t>
   </si>
   <si>
-    <t>p1</t>
-  </si>
-  <si>
-    <t>p2</t>
-  </si>
-  <si>
-    <t>p3</t>
-  </si>
-  <si>
-    <t>p4</t>
-  </si>
-  <si>
-    <t>p5</t>
-  </si>
-  <si>
     <t>datascience</t>
   </si>
   <si>
@@ -223,6 +205,33 @@
   </si>
   <si>
     <t>marketin</t>
+  </si>
+  <si>
+    <t>alumno_id</t>
+  </si>
+  <si>
+    <t>proyecto_id</t>
+  </si>
+  <si>
+    <t>nombre_p1</t>
+  </si>
+  <si>
+    <t>hundir_flota</t>
+  </si>
+  <si>
+    <t>proyecto_1</t>
+  </si>
+  <si>
+    <t>sql</t>
+  </si>
+  <si>
+    <t>eda</t>
+  </si>
+  <si>
+    <t>juego</t>
+  </si>
+  <si>
+    <t>movilap</t>
   </si>
 </sst>
 </file>
@@ -238,7 +247,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,6 +287,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -339,11 +354,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -362,14 +372,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -652,17 +668,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S42"/>
+  <dimension ref="A1:S66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
@@ -696,10 +712,10 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="4"/>
+      <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="4"/>
+      <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -707,45 +723,43 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="5"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -759,23 +773,21 @@
       <c r="H4" s="2">
         <v>2</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="5"/>
-      <c r="Q4" s="5"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -789,28 +801,26 @@
       <c r="H5" s="2">
         <v>3</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="5"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="4"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
@@ -824,8 +834,8 @@
       <c r="H6" s="2">
         <v>4</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="7" t="s">
+      <c r="I6" s="1"/>
+      <c r="J6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="K6" s="2">
@@ -834,20 +844,19 @@
       <c r="L6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="5"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="4"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2">
         <v>4</v>
@@ -868,50 +877,40 @@
       <c r="L7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="5"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="5"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="B9" s="1"/>
+      <c r="E9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="5"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="2" t="s">
         <v>11</v>
       </c>
@@ -924,24 +923,15 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
+      <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="10" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="7" t="s">
         <v>3</v>
       </c>
       <c r="G11" s="2">
@@ -954,21 +944,15 @@
         <v>10</v>
       </c>
       <c r="K11" s="1"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="4"/>
+      <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="1"/>
       <c r="G12" s="2">
         <v>2</v>
       </c>
@@ -979,13 +963,19 @@
         <v>11</v>
       </c>
       <c r="K12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="2">
         <v>3</v>
       </c>
@@ -996,15 +986,15 @@
         <v>13</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -1012,15 +1002,18 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -1047,30 +1040,27 @@
         <v>11</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="L15" s="11"/>
+      <c r="M15" s="1"/>
       <c r="N15" s="2" t="s">
         <v>60</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P15" s="13" t="s">
-        <v>62</v>
-      </c>
+      <c r="P15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="2">
@@ -1100,15 +1090,24 @@
       <c r="K16" s="2">
         <v>1</v>
       </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="3"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" s="2">
+        <v>1</v>
+      </c>
+      <c r="O16" s="2">
+        <v>11</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="4"/>
+      <c r="B17" s="1"/>
       <c r="C17" s="2">
         <v>2</v>
       </c>
@@ -1136,15 +1135,22 @@
       <c r="K17" s="2">
         <v>2</v>
       </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="3"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="2">
+        <v>1</v>
+      </c>
+      <c r="O17" s="2">
+        <v>12</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="4"/>
+      <c r="B18" s="1"/>
       <c r="C18" s="2">
         <v>3</v>
       </c>
@@ -1172,15 +1178,22 @@
       <c r="K18" s="2">
         <v>3</v>
       </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="3"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="2">
+        <v>3</v>
+      </c>
+      <c r="O18" s="2">
+        <v>13</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="4"/>
+      <c r="B19" s="1"/>
       <c r="C19" s="2">
         <v>4</v>
       </c>
@@ -1208,15 +1221,22 @@
       <c r="K19" s="2">
         <v>2</v>
       </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="3"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="2">
+        <v>4</v>
+      </c>
+      <c r="O19" s="2">
+        <v>14</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="4"/>
+      <c r="B20" s="1"/>
       <c r="C20" s="2">
         <v>5</v>
       </c>
@@ -1244,28 +1264,37 @@
       <c r="K20" s="2">
         <v>4</v>
       </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="3"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="2">
+        <v>5</v>
+      </c>
+      <c r="O20" s="2">
+        <v>15</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="4"/>
+      <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
       <c r="D22" s="2" t="s">
         <v>36</v>
       </c>
@@ -1275,21 +1304,23 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D23" s="2">
@@ -1299,7 +1330,7 @@
         <v>5</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="9" t="s">
         <v>7</v>
       </c>
       <c r="H23" s="2">
@@ -1311,11 +1342,13 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="4"/>
+      <c r="C24" s="1"/>
       <c r="D24" s="2">
         <v>2</v>
       </c>
@@ -1331,12 +1364,12 @@
         <v>24</v>
       </c>
       <c r="J24" s="1"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="10"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
@@ -1354,14 +1387,14 @@
         <v>3</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="10"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
@@ -1376,16 +1409,20 @@
         <v>4</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="K26" s="1"/>
       <c r="L26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
+        <v>62</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O26" s="11"/>
+      <c r="P26" s="10"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
@@ -1396,115 +1433,475 @@
         <v>5</v>
       </c>
       <c r="I27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="2">
+        <v>11</v>
+      </c>
+      <c r="N27" s="2">
+        <v>1</v>
+      </c>
+      <c r="O27" s="11"/>
+      <c r="P27" s="10"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L27" s="2"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
+      <c r="M28" s="2">
+        <v>12</v>
+      </c>
+      <c r="N28" s="2">
+        <v>2</v>
+      </c>
+      <c r="O28" s="1"/>
+      <c r="P28" s="10"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M29" s="2">
+        <v>13</v>
+      </c>
+      <c r="N29" s="2">
+        <v>3</v>
+      </c>
+      <c r="O29" s="1"/>
+      <c r="P29" s="10"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L30" s="2"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="10"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M30" s="2">
+        <v>14</v>
+      </c>
+      <c r="N30" s="2">
+        <v>4</v>
+      </c>
+      <c r="O30" s="1"/>
+      <c r="P30" s="10"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M31" s="2">
+        <v>15</v>
+      </c>
+      <c r="N31" s="2">
+        <v>5</v>
+      </c>
+      <c r="O31" s="1"/>
+      <c r="P31" s="10"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-    </row>
-    <row r="33" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="10"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="10"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="10"/>
+      <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
-    </row>
-    <row r="37" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="13"/>
-    </row>
-    <row r="38" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="3"/>
-    </row>
-    <row r="39" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="3"/>
-    </row>
-    <row r="42" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="3"/>
+      <c r="P33" s="10"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="10"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="10"/>
+      <c r="O35" s="11"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="10"/>
+      <c r="O36" s="11"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="10"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="10"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="10"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="10"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="10"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="10"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="10"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="10"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="10"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+    </row>
+    <row r="49" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+    </row>
+    <row r="50" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+    </row>
+    <row r="51" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+    </row>
+    <row r="52" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+    </row>
+    <row r="53" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+    </row>
+    <row r="54" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+    </row>
+    <row r="55" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+    </row>
+    <row r="56" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+    </row>
+    <row r="57" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+    </row>
+    <row r="58" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+    </row>
+    <row r="59" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+    </row>
+    <row r="60" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+    </row>
+    <row r="61" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+    </row>
+    <row r="62" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+    </row>
+    <row r="63" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+    </row>
+    <row r="64" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+    </row>
+    <row r="65" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+    </row>
+    <row r="66" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Pruebas.xlsx
+++ b/Pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jjaavviieerroperro\Desktop\Bootcamp DS\RepositoriosGitHub\Proyectos\Proyecto_sqlite\SQLite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C291D554-B836-457F-8C2B-8C6E6E6CA94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B08B4C7-8915-4FB7-9D12-E2E76F3D688A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
   <si>
     <t>javier</t>
   </si>
@@ -57,18 +57,12 @@
     <t>correo</t>
   </si>
   <si>
-    <t>bot_id</t>
-  </si>
-  <si>
     <t>prom_id</t>
   </si>
   <si>
     <t>mes</t>
   </si>
   <si>
-    <t>fecha</t>
-  </si>
-  <si>
     <t>Paula</t>
   </si>
   <si>
@@ -93,9 +87,6 @@
     <t>ramirez</t>
   </si>
   <si>
-    <t>ciudad</t>
-  </si>
-  <si>
     <t>alber</t>
   </si>
   <si>
@@ -192,9 +183,6 @@
     <t>Vertical_id</t>
   </si>
   <si>
-    <t>vertical</t>
-  </si>
-  <si>
     <t>vertical_id</t>
   </si>
   <si>
@@ -232,6 +220,33 @@
   </si>
   <si>
     <t>movilap</t>
+  </si>
+  <si>
+    <t>Precio_mod</t>
+  </si>
+  <si>
+    <t>fecha_inicio</t>
+  </si>
+  <si>
+    <t>duracion</t>
+  </si>
+  <si>
+    <t>Vertical</t>
+  </si>
+  <si>
+    <t>Campus_main</t>
+  </si>
+  <si>
+    <t>cordoba</t>
+  </si>
+  <si>
+    <t>Vertical_main</t>
+  </si>
+  <si>
+    <t>Numero_estudiantes</t>
+  </si>
+  <si>
+    <t>fecha_entrega</t>
   </si>
 </sst>
 </file>
@@ -346,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -375,17 +390,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -668,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S66"/>
+  <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,7 +690,7 @@
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" customWidth="1"/>
@@ -694,14 +705,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="K1" s="8"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -720,29 +740,30 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -750,16 +771,18 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
       <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -775,19 +798,22 @@
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="8"/>
+      <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -803,24 +829,22 @@
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
       <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
@@ -835,28 +859,23 @@
         <v>4</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2">
         <v>4</v>
@@ -870,127 +889,165 @@
       <c r="H7" s="2">
         <v>1</v>
       </c>
+      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="2">
-        <v>2</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="K7" s="1"/>
       <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
       <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
       <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="G10" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>13</v>
+        <v>43</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="7" t="s">
-        <v>3</v>
+      <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>25</v>
+      <c r="H11" s="2">
+        <v>1</v>
       </c>
       <c r="I11" s="2">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
       </c>
       <c r="K11" s="1"/>
+      <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G12" s="2">
-        <v>2</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>26</v>
+        <v>3</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
       </c>
       <c r="I12" s="2">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2</v>
       </c>
       <c r="K12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="G13" s="2">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2</v>
+      </c>
+      <c r="J13" s="2">
         <v>3</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="2">
-        <v>13</v>
-      </c>
-      <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -999,909 +1056,938 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="C14" s="2">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>4</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
       <c r="K14" s="1"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
+      <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="2" t="s">
-        <v>6</v>
+      <c r="C15" s="2">
+        <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L15" s="11"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>3</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>4</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2">
-        <v>1</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1</v>
-      </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N16" s="2">
-        <v>1</v>
-      </c>
-      <c r="O16" s="2">
-        <v>11</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="2">
-        <v>2</v>
+      <c r="C17" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2">
-        <v>3</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2">
-        <v>2</v>
-      </c>
-      <c r="K17" s="2">
-        <v>2</v>
-      </c>
-      <c r="L17" s="11"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="2">
-        <v>1</v>
-      </c>
-      <c r="O17" s="2">
-        <v>12</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="C18" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="2">
-        <v>2</v>
-      </c>
-      <c r="H18" s="2">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>100</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="I18" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J18" s="2">
-        <v>2</v>
-      </c>
-      <c r="K18" s="2">
-        <v>3</v>
-      </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="2">
-        <v>3</v>
-      </c>
-      <c r="O18" s="2">
-        <v>13</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="2">
-        <v>4</v>
-      </c>
-      <c r="H19" s="2">
-        <v>4</v>
+        <v>25</v>
+      </c>
+      <c r="E19" s="2">
+        <v>200</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="I19" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J19" s="2">
-        <v>1</v>
-      </c>
-      <c r="K19" s="2">
-        <v>2</v>
-      </c>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="2">
-        <v>4</v>
-      </c>
-      <c r="O19" s="2">
-        <v>14</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="2">
+        <v>26</v>
+      </c>
+      <c r="E20" s="2">
+        <v>300</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="2">
+        <v>13</v>
+      </c>
+      <c r="J20" s="2">
         <v>3</v>
       </c>
-      <c r="H20" s="2">
-        <v>2</v>
-      </c>
-      <c r="I20" s="2">
-        <v>3</v>
-      </c>
-      <c r="J20" s="2">
-        <v>1</v>
-      </c>
-      <c r="K20" s="2">
-        <v>4</v>
-      </c>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="2">
-        <v>5</v>
-      </c>
-      <c r="O20" s="2">
+      <c r="K20" s="2"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="C21" s="2">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="2">
+        <v>100</v>
+      </c>
       <c r="F21" s="1"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="2">
+        <v>14</v>
+      </c>
+      <c r="J21" s="2">
+        <v>4</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="M21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21" s="2">
+        <v>1</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P21" s="2"/>
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="C22" s="2">
+        <v>5</v>
+      </c>
       <c r="D22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>22</v>
+        <v>70</v>
+      </c>
+      <c r="E22" s="2">
+        <v>150</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
+        <v>64</v>
+      </c>
+      <c r="I22" s="2">
+        <v>15</v>
+      </c>
+      <c r="J22" s="2">
+        <v>5</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="2">
+        <v>2</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P22" s="2"/>
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="2">
-        <v>1</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="2">
-        <v>2</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="2">
-        <v>2</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="10"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="2">
-        <v>3</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="2">
-        <v>3</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="10"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="2">
-        <v>4</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="2">
-        <v>4</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="O26" s="11"/>
-      <c r="P26" s="10"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="2">
-        <v>5</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M27" s="2">
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N27" s="2">
-        <v>1</v>
-      </c>
-      <c r="O27" s="11"/>
-      <c r="P27" s="10"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G28" s="1"/>
+      <c r="F28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M28" s="2">
+      <c r="L28" s="1"/>
+      <c r="M28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1</v>
+      </c>
+      <c r="O28" s="2">
+        <v>11</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="2">
+        <v>10</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="2">
+        <v>1</v>
+      </c>
+      <c r="O29" s="2">
         <v>12</v>
       </c>
-      <c r="N28" s="2">
-        <v>2</v>
-      </c>
-      <c r="O28" s="1"/>
-      <c r="P28" s="10"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M29" s="2">
+      <c r="P29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="2">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="2">
+        <v>11</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="2">
+        <v>3</v>
+      </c>
+      <c r="O30" s="2">
         <v>13</v>
       </c>
-      <c r="N29" s="2">
+      <c r="P30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="2">
         <v>3</v>
       </c>
-      <c r="O29" s="1"/>
-      <c r="P29" s="10"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="10"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M30" s="2">
-        <v>14</v>
-      </c>
-      <c r="N30" s="2">
-        <v>4</v>
-      </c>
-      <c r="O30" s="1"/>
-      <c r="P30" s="10"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
+      <c r="E31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="2">
+        <v>13</v>
+      </c>
+      <c r="G31" s="2"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M31" s="2">
-        <v>15</v>
-      </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
       <c r="N31" s="2">
-        <v>5</v>
-      </c>
-      <c r="O31" s="1"/>
-      <c r="P31" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="O31" s="2">
+        <v>14</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="10"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="10"/>
+      <c r="N32" s="2">
+        <v>5</v>
+      </c>
+      <c r="O32" s="2">
+        <v>15</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q32" s="1"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="10"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
-      <c r="P33" s="10"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="10"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="10"/>
-      <c r="O35" s="11"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="2">
+        <v>2</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="10"/>
-      <c r="O36" s="11"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="2">
+        <v>3</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="10"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="10"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="2">
+        <v>4</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="10"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="2">
+        <v>5</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="10"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="10"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="10"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="10"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="10"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="10"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
     </row>
     <row r="49" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
     </row>
     <row r="50" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
     </row>
     <row r="51" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
     </row>
     <row r="52" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
     </row>
     <row r="53" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
     </row>
     <row r="54" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
     </row>
     <row r="55" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="11"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
     </row>
     <row r="56" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="11"/>
-      <c r="O56" s="11"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
     </row>
     <row r="57" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="11"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
     </row>
     <row r="58" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
     </row>
     <row r="59" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
-      <c r="M59" s="11"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="11"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
     </row>
     <row r="60" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="11"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
     </row>
     <row r="61" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="11"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
     </row>
     <row r="62" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="11"/>
-      <c r="O62" s="11"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
     </row>
     <row r="63" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="11"/>
-      <c r="N63" s="11"/>
-      <c r="O63" s="11"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
     </row>
     <row r="64" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="11"/>
-      <c r="O64" s="11"/>
-    </row>
-    <row r="65" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="10"/>
-    </row>
-    <row r="66" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="10"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Pruebas.xlsx
+++ b/Pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jjaavviieerroperro\Desktop\Bootcamp DS\RepositoriosGitHub\Proyectos\Proyecto_sqlite\SQLite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B08B4C7-8915-4FB7-9D12-E2E76F3D688A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F8E984-ED18-49A5-A72A-EC0E299005BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="91">
   <si>
     <t>javier</t>
   </si>
@@ -36,9 +36,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>promocion</t>
-  </si>
-  <si>
     <t>ds</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>online</t>
   </si>
   <si>
-    <t>alunmno</t>
-  </si>
-  <si>
     <t>Andres</t>
   </si>
   <si>
@@ -123,18 +117,12 @@
     <t>presencial</t>
   </si>
   <si>
-    <t>campus</t>
-  </si>
-  <si>
     <t>campus_id</t>
   </si>
   <si>
     <t>claustro</t>
   </si>
   <si>
-    <t>calificacion</t>
-  </si>
-  <si>
     <t>nota</t>
   </si>
   <si>
@@ -201,15 +189,9 @@
     <t>proyecto_id</t>
   </si>
   <si>
-    <t>nombre_p1</t>
-  </si>
-  <si>
     <t>hundir_flota</t>
   </si>
   <si>
-    <t>proyecto_1</t>
-  </si>
-  <si>
     <t>sql</t>
   </si>
   <si>
@@ -247,6 +229,75 @@
   </si>
   <si>
     <t>fecha_entrega</t>
+  </si>
+  <si>
+    <t>Nombre_completo</t>
+  </si>
+  <si>
+    <t>comentarios</t>
+  </si>
+  <si>
+    <t>fatal</t>
+  </si>
+  <si>
+    <t>flama</t>
+  </si>
+  <si>
+    <t>de la ostia</t>
+  </si>
+  <si>
+    <t>regular</t>
+  </si>
+  <si>
+    <t>neutro</t>
+  </si>
+  <si>
+    <t>3 meses</t>
+  </si>
+  <si>
+    <t>5 años</t>
+  </si>
+  <si>
+    <t>12 años</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>analista</t>
+  </si>
+  <si>
+    <t>desarrollador</t>
+  </si>
+  <si>
+    <t>cientifico datos</t>
+  </si>
+  <si>
+    <t>paintester</t>
+  </si>
+  <si>
+    <t>empresario</t>
+  </si>
+  <si>
+    <t>Proyectos</t>
+  </si>
+  <si>
+    <t>Campus</t>
+  </si>
+  <si>
+    <t>Alunmno</t>
+  </si>
+  <si>
+    <t>Promocion</t>
+  </si>
+  <si>
+    <t>Calificacion</t>
+  </si>
+  <si>
+    <t>ld</t>
+  </si>
+  <si>
+    <t>Profesor_id</t>
   </si>
 </sst>
 </file>
@@ -312,7 +363,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -348,15 +399,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -367,9 +409,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -384,19 +423,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -681,14 +723,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
@@ -702,6 +744,7 @@
     <col min="14" max="14" width="15.7109375" customWidth="1"/>
     <col min="15" max="15" width="14.42578125" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -715,7 +758,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="8"/>
+      <c r="K1" s="11"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -744,28 +787,30 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
-        <v>34</v>
+      <c r="B3" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -778,14 +823,14 @@
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -794,9 +839,11 @@
         <v>1</v>
       </c>
       <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
         <v>2</v>
       </c>
-      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -809,14 +856,14 @@
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
       </c>
       <c r="F5" s="2">
         <v>2</v>
@@ -825,13 +872,15 @@
         <v>2</v>
       </c>
       <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2">
         <v>3</v>
       </c>
-      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -840,30 +889,32 @@
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="2" t="s">
-        <v>47</v>
+      <c r="C6" s="2">
+        <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2</v>
+        <v>43</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="F6" s="2">
         <v>3</v>
       </c>
       <c r="G6" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6" s="2">
         <v>4</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="I6" s="2">
+        <v>4</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -871,14 +922,14 @@
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="2" t="s">
-        <v>48</v>
+      <c r="C7" s="2">
+        <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="2">
-        <v>4</v>
+        <v>44</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="F7" s="2">
         <v>4</v>
@@ -887,26 +938,48 @@
         <v>4</v>
       </c>
       <c r="H7" s="2">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2">
         <v>1</v>
       </c>
-      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="1"/>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>4</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
@@ -921,7 +994,10 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
@@ -929,37 +1005,39 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="G10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="I10" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K10" s="1"/>
-      <c r="P10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="5" t="s">
-        <v>17</v>
+      <c r="B11" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -970,7 +1048,7 @@
       <c r="E11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G11" s="2">
@@ -986,7 +1064,9 @@
         <v>1</v>
       </c>
       <c r="K11" s="1"/>
-      <c r="P11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -996,13 +1076,13 @@
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="G12" s="2">
         <v>3</v>
@@ -1017,7 +1097,9 @@
         <v>2</v>
       </c>
       <c r="K12" s="1"/>
-      <c r="P12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1027,12 +1109,12 @@
         <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G13" s="2">
@@ -1048,7 +1130,9 @@
         <v>3</v>
       </c>
       <c r="K13" s="1"/>
-      <c r="P13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -1060,12 +1144,12 @@
         <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G14" s="2">
@@ -1081,7 +1165,9 @@
         <v>2</v>
       </c>
       <c r="K14" s="1"/>
-      <c r="P14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -1091,13 +1177,13 @@
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>30</v>
       </c>
       <c r="G15" s="2">
         <v>2</v>
@@ -1112,7 +1198,9 @@
         <v>4</v>
       </c>
       <c r="K15" s="1"/>
-      <c r="P15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -1127,6 +1215,9 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
@@ -1134,51 +1225,54 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="6" t="s">
-        <v>32</v>
+      <c r="B18" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18" s="2">
         <v>100</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="10" t="s">
-        <v>60</v>
+      <c r="G18" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I18" s="2">
         <v>11</v>
@@ -1186,7 +1280,12 @@
       <c r="J18" s="2">
         <v>1</v>
       </c>
-      <c r="K18" s="2"/>
+      <c r="K18" s="10">
+        <v>45363</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
@@ -1197,7 +1296,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E19" s="2">
         <v>200</v>
@@ -1205,7 +1304,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I19" s="2">
         <v>12</v>
@@ -1213,7 +1312,10 @@
       <c r="J19" s="2">
         <v>2</v>
       </c>
-      <c r="K19" s="2"/>
+      <c r="K19" s="10">
+        <v>45364</v>
+      </c>
+      <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -1227,7 +1329,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E20" s="2">
         <v>300</v>
@@ -1235,7 +1337,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I20" s="2">
         <v>13</v>
@@ -1243,17 +1345,12 @@
       <c r="J20" s="2">
         <v>3</v>
       </c>
-      <c r="K20" s="2"/>
+      <c r="K20" s="10">
+        <v>45365</v>
+      </c>
+      <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="N20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -1263,7 +1360,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E21" s="2">
         <v>100</v>
@@ -1271,7 +1368,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I21" s="2">
         <v>14</v>
@@ -1279,17 +1376,12 @@
       <c r="J21" s="2">
         <v>4</v>
       </c>
-      <c r="K21" s="2"/>
-      <c r="M21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N21" s="2">
-        <v>1</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P21" s="2"/>
+      <c r="K21" s="10">
+        <v>45366</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -1299,7 +1391,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E22" s="2">
         <v>150</v>
@@ -1307,7 +1399,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I22" s="2">
         <v>15</v>
@@ -1315,15 +1407,12 @@
       <c r="J22" s="2">
         <v>5</v>
       </c>
-      <c r="K22" s="2"/>
+      <c r="K22" s="10">
+        <v>45367</v>
+      </c>
+      <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="2">
-        <v>2</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P22" s="2"/>
+      <c r="N22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -1332,60 +1421,110 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
+      <c r="N23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="I24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
+      <c r="N24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="B25" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="2">
+        <v>10</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="H25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
+      <c r="N25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="C26" s="2">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="2">
+        <v>11</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="I26" s="2">
+        <v>2</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -1395,198 +1534,199 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="C27" s="2">
+        <v>3</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="2">
+        <v>13</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="I27" s="2">
+        <v>3</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q27" s="1"/>
+      <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>67</v>
-      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="I28" s="2">
+        <v>4</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="L28" s="1"/>
-      <c r="M28" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N28" s="2">
-        <v>1</v>
-      </c>
-      <c r="O28" s="2">
-        <v>11</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1</v>
+      <c r="C29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="2">
-        <v>10</v>
-      </c>
-      <c r="G29" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="I29" s="2">
+        <v>5</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="2">
-        <v>1</v>
-      </c>
-      <c r="O29" s="2">
-        <v>12</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q29" s="1"/>
+      <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="B30" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
       <c r="D30" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="2">
-        <v>11</v>
-      </c>
-      <c r="G30" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="2">
-        <v>3</v>
-      </c>
-      <c r="O30" s="2">
-        <v>13</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q30" s="1"/>
+      <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
       <c r="D31" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="2">
-        <v>13</v>
-      </c>
-      <c r="G31" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="I31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="2">
-        <v>4</v>
-      </c>
-      <c r="O31" s="2">
-        <v>14</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q31" s="1"/>
+      <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="C32" s="2">
+        <v>3</v>
+      </c>
+      <c r="D32" s="2">
+        <v>13</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="H32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="2">
+        <v>500</v>
+      </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="2">
-        <v>5</v>
-      </c>
-      <c r="O32" s="2">
-        <v>15</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q32" s="1"/>
+      <c r="N32" s="1"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="C33" s="2">
+        <v>4</v>
+      </c>
+      <c r="D33" s="2">
+        <v>14</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="2" t="s">
-        <v>51</v>
+      <c r="I33" s="2">
+        <v>2</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K33" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="K33" s="2">
+        <v>7000</v>
+      </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -1597,20 +1737,22 @@
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="C34" s="2">
+        <v>5</v>
+      </c>
+      <c r="D34" s="2">
+        <v>15</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I34" s="2">
-        <v>1</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -1628,12 +1770,8 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="2">
-        <v>2</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -1651,12 +1789,8 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="2">
-        <v>3</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -1674,12 +1808,8 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="2">
-        <v>4</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -1697,12 +1827,8 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="2">
-        <v>5</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -1864,6 +1990,15 @@
       <c r="Q46" s="1"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -1871,118 +2006,235 @@
       <c r="O47" s="1"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
